--- a/biology/Zoologie/Anadia_mcdiarmidi/Anadia_mcdiarmidi.xlsx
+++ b/biology/Zoologie/Anadia_mcdiarmidi/Anadia_mcdiarmidi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anadia mcdiarmidi est une espèce de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anadia mcdiarmidi est une espèce de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'État de Bolívar au  Venezuela[1]. Elle est présente uniquement sur le massif Chimantá où on la rencontre au sommet des tepuy Abakapá, Amurí et Murei  entre 2 100 et 2 600 m d'altitude[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'État de Bolívar au  Venezuela. Elle est présente uniquement sur le massif Chimantá où on la rencontre au sommet des tepuy Abakapá, Amurí et Murei  entre 2 100 et 2 600 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Roy Wallace McDiarmid[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Roy Wallace McDiarmid.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kok &amp; Rivas, 2011 : A new species of Anadia (Reptilia, Squamata) from the Venezuelan Lost World, northern South America. European Journal of Taxonomy, vol. 3, p. 1-18 (texte intégral).</t>
         </is>
